--- a/data/income_statement/2digits/size/10_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/10_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>10-Manufacture of food products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>10-Manufacture of food products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>6877363.293550001</v>
+        <v>7105564.886059999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6741049.171719999</v>
+        <v>7077381.324390001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>7352570.280780001</v>
+        <v>7743302.14742</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7785495.82823</v>
+        <v>8258088.47281</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>11201461.59473</v>
+        <v>11852967.78278</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>11798220.87815</v>
+        <v>12537682.12221</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>12325144.78162</v>
+        <v>13140353.04285</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>12574098.81199</v>
+        <v>13587509.39837</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>13280826.89443</v>
+        <v>14230405.84874</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>28813125.68013</v>
+        <v>30245330.95375</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>32437909.14452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>34054224.94584</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>35244162.298</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>6250016.51519</v>
+        <v>6448842.08728</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>6205438.26655</v>
+        <v>6508905.174990001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>6821457.23549</v>
+        <v>7173198.22317</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>7199050.508559999</v>
+        <v>7623829.1435</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>10214343.79689</v>
+        <v>10777892.27801</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>10881042.59771</v>
+        <v>11553726.64489</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>11372746.37787</v>
+        <v>12077373.05292</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>11446358.79516</v>
+        <v>12297985.63155</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>11987262.97545</v>
+        <v>12787743.96708</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>25624067.71921</v>
+        <v>26746261.70661</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>28754056.2072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>30155868.6261</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>31092874.198</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>579453.5926199999</v>
+        <v>602669.1393</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>464528.34609</v>
+        <v>491371.7868999999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>466910.32306</v>
+        <v>497480.4490699999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>518391.70137</v>
+        <v>557561.17587</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>897096.46882</v>
+        <v>966654.2225599999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>830159.52073</v>
+        <v>880232.1590600001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>844862.1223399999</v>
+        <v>937995.2225799999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1007683.37339</v>
+        <v>1153054.5188</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1144528.06047</v>
+        <v>1261397.67941</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2939768.34848</v>
+        <v>3182552.27318</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3368702.10557</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3542572.04141</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3765056.136</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>47893.18574</v>
+        <v>54053.65947999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>71082.55907999999</v>
+        <v>77104.3625</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>64202.72223000001</v>
+        <v>72623.47517999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>68053.6183</v>
+        <v>76698.15343999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>90021.32901999998</v>
+        <v>108421.28221</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>87018.75971000001</v>
+        <v>103723.31826</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>107536.28141</v>
+        <v>124984.76735</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>120056.64344</v>
+        <v>136469.24802</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>149035.85851</v>
+        <v>181264.20225</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>249289.61244</v>
+        <v>316516.97396</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>315150.83175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>355784.27833</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>386231.964</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>94628.56635000001</v>
+        <v>102370.72334</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>84055.51467999999</v>
+        <v>93154.95212999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>85859.26509</v>
+        <v>97430.43798999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>97009.20114999999</v>
+        <v>106969.15257</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>139686.69021</v>
+        <v>160706.06127</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>130227.36824</v>
+        <v>147571.72725</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>140682.15005</v>
+        <v>159901.43081</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>136212.7738</v>
+        <v>161458.35128</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>279113.14046</v>
+        <v>304310.15268</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>406272.57101</v>
+        <v>436441.42297</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1748291.49831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1809199.13565</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>520820.981</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>66749.89491999999</v>
+        <v>71697.57622</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>53412.69981</v>
+        <v>57715.36169000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>56304.17735</v>
+        <v>62925.15671</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>57603.44437</v>
+        <v>64538.65282</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>93539.58222</v>
+        <v>108467.1414</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>93398.77698</v>
+        <v>103023.04849</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>100598.37742</v>
+        <v>113945.91459</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>95248.2142</v>
+        <v>114876.40406</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>242185.17525</v>
+        <v>257944.60208</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>321776.9026900001</v>
+        <v>343397.07735</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1665148.47539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1720886.11376</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>429190.658</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>24194.73669</v>
+        <v>26728.57908</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>26302.96545</v>
+        <v>30843.85693</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>24426.84793</v>
+        <v>29096.30803</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>34521.78104000001</v>
+        <v>37196.96365000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>38224.04059</v>
+        <v>43406.34833000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>29055.10145</v>
+        <v>35360.49218</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>32770.71169</v>
+        <v>36741.88748999999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>28628.14007</v>
+        <v>32801.1724</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>23044.89216</v>
+        <v>29336.15567</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>54378.61996</v>
+        <v>61724.46841</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>56871.67011000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>58932.14079999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>71010.882</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>3683.93474</v>
+        <v>3944.56804</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>4339.84942</v>
+        <v>4595.73351</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>5128.239810000001</v>
+        <v>5408.97325</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>4883.97574</v>
+        <v>5233.536099999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>7923.067399999998</v>
+        <v>8832.571540000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>7773.48981</v>
+        <v>9188.186579999998</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>7313.060939999999</v>
+        <v>9213.628729999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>12336.41953</v>
+        <v>13780.77482</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>13883.07305</v>
+        <v>17029.39492999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>30117.04836</v>
+        <v>31319.87721</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>26271.35281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>29380.88109</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>20619.441</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>6782734.727200001</v>
+        <v>7003194.16272</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>6656993.657040001</v>
+        <v>6984226.372260001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>7266711.015690001</v>
+        <v>7645871.709430001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>7688486.627079999</v>
+        <v>8151119.320239999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>11061774.90452</v>
+        <v>11692261.72151</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>11667993.50991</v>
+        <v>12390110.39496</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>12184462.63157</v>
+        <v>12980451.61204</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>12437886.03819</v>
+        <v>13426051.04709</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>13001713.75397</v>
+        <v>13926095.69606</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>28406853.10912</v>
+        <v>29808889.53078</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>30689617.64621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>32245025.81019</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>34723341.317</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>5986400.34884</v>
+        <v>6177470.711610001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>5852061.96363</v>
+        <v>6139809.49581</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>6390788.47941</v>
+        <v>6719494.49035</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6744049.516950001</v>
+        <v>7157672.67333</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>9748358.002429999</v>
+        <v>10308749.15193</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>10273194.28462</v>
+        <v>10913965.13256</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>10693998.98738</v>
+        <v>11423720.59349</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>10867075.30215</v>
+        <v>11744147.76145</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>11313067.66323</v>
+        <v>12119550.37019</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>25126960.05585</v>
+        <v>26363499.42565</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>27058596.71037</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>28464260.2053</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>30974579.509</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>4366279.56095</v>
+        <v>4530431.89942</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4135658.35598</v>
+        <v>4376017.28234</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>4464030.16796</v>
+        <v>4718146.187799999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>4689790.65248</v>
+        <v>5035285.04124</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>6882652.4465</v>
+        <v>7368662.118349999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>7317388.15075</v>
+        <v>7832927.143880001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>7625501.702849999</v>
+        <v>8197973.602150001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>7407069.165560002</v>
+        <v>8083951.991769999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>7510896.027070001</v>
+        <v>8062381.999899999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>18096253.9329</v>
+        <v>19082199.5226</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>19223236.67859</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>20285906.0647</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>21422524.029</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1494714.82503</v>
+        <v>1513826.02955</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1542298.79923</v>
+        <v>1583017.1511</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1769865.38853</v>
+        <v>1833356.7523</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1863073.8494</v>
+        <v>1920148.19397</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2612034.64373</v>
+        <v>2669859.46998</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2625865.87439</v>
+        <v>2737727.68629</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2784118.26453</v>
+        <v>2923388.71061</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3103673.76393</v>
+        <v>3265202.451069999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3405092.0109</v>
+        <v>3630944.351499999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>6393506.918670001</v>
+        <v>6597701.07023</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>6957440.313560001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>7259166.11116</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>8653846.221999999</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>101991.84371</v>
+        <v>106273.28563</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>134115.61229</v>
+        <v>138959.17471</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>120455.73764</v>
+        <v>127861.36319</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>158449.9515</v>
+        <v>164996.6519</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>185798.77903</v>
+        <v>195746.02948</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>251971.48647</v>
+        <v>259471.85046</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>225153.02954</v>
+        <v>232291.53351</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>302207.69552</v>
+        <v>324159.99076</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>302051.1434600001</v>
+        <v>312252.07191</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>446321.09629</v>
+        <v>456824.36178</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>622442.4682900001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>657244.78237</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>616933.2120000001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>23414.11915</v>
+        <v>26939.49701</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>39989.19613</v>
+        <v>41815.88766</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>36437.18528</v>
+        <v>40130.18706</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>32735.06356999999</v>
+        <v>37242.78622</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>67872.13317</v>
+        <v>74481.53412</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>77968.77301</v>
+        <v>83838.45193</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>59225.99046</v>
+        <v>70066.74722</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>54124.67713999999</v>
+        <v>70833.32784999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>95028.48179999998</v>
+        <v>113971.94688</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>190878.10799</v>
+        <v>226774.47104</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>255477.24993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>261943.24707</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>281276.046</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>796334.3783600001</v>
+        <v>825723.45111</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>804931.6934099999</v>
+        <v>844416.8764500001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>875922.5362800001</v>
+        <v>926377.2190800001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>944437.1101300002</v>
+        <v>993446.64691</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1313416.90209</v>
+        <v>1383512.56958</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1394799.22529</v>
+        <v>1476145.2624</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1490463.64419</v>
+        <v>1556731.01855</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1570810.73604</v>
+        <v>1681903.28564</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1688646.09074</v>
+        <v>1806545.32587</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3279893.05327</v>
+        <v>3445390.10513</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3631020.93584</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3780765.60489</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3748761.808</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>625108.2955600001</v>
+        <v>644358.37035</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>653011.4889199999</v>
+        <v>685699.8842200001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>718635.22877</v>
+        <v>786175.50583</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>789236.2096800001</v>
+        <v>839325.13849</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1064636.08425</v>
+        <v>1126487.60717</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1120406.79084</v>
+        <v>1181953.75527</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1210055.55561</v>
+        <v>1263549.17956</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1311106.68669</v>
+        <v>1374442.27859</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1387948.32284</v>
+        <v>1462657.14202</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2357697.91159</v>
+        <v>2449070.951640001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2634603.447670001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2731337.723600001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2768153.703</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>3799.73125</v>
+        <v>3848.65493</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>3462.01175</v>
+        <v>3345.2781</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>2253.12271</v>
+        <v>4666.142620000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>7349.941549999999</v>
+        <v>7100.19364</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>7120.26358</v>
+        <v>5798.03277</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>3595.35901</v>
+        <v>4426.99394</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>5534.28323</v>
+        <v>4766.28577</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>3037.79691</v>
+        <v>2840.18388</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>3172.05512</v>
+        <v>3618.54381</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>3913.7323</v>
+        <v>3838.61001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>6620.104880000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>6018.81277</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2743.422</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>250342.89793</v>
+        <v>262007.89161</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>257013.55986</v>
+        <v>274760.1329199999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>281263.76434</v>
+        <v>319419.07084</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>305005.3583799999</v>
+        <v>331943.87552</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>430412.91015</v>
+        <v>464492.50268</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>441341.7493099999</v>
+        <v>466067.40998</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>455881.1293800001</v>
+        <v>478078.47752</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>500861.59321</v>
+        <v>536305.61532</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>518922.3848300001</v>
+        <v>561769.7778</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1034251.77563</v>
+        <v>1075040.68609</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1157431.20628</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1201268.07163</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1140364.329</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>370965.66638</v>
+        <v>378501.82381</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>392535.91731</v>
+        <v>407594.4732</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>435118.34172</v>
+        <v>462090.2923699999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>476880.90975</v>
+        <v>500281.0693299999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>627102.9105199999</v>
+        <v>656197.07172</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>675469.68252</v>
+        <v>711459.3513499999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>748640.1430000002</v>
+        <v>780704.4162699999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>807207.29657</v>
+        <v>835296.47939</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>865853.88289</v>
+        <v>897268.8204099999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1319532.40366</v>
+        <v>1370191.65554</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1470552.13651</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1524050.8392</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1625045.952</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>171226.0828</v>
+        <v>181365.08076</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>151920.20449</v>
+        <v>158716.99223</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>157287.30751</v>
+        <v>140201.71325</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>155200.90045</v>
+        <v>154121.50842</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>248780.81784</v>
+        <v>257024.96241</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>274392.43445</v>
+        <v>294191.5071299999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>280408.08858</v>
+        <v>293181.83899</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>259704.04935</v>
+        <v>307461.00705</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>300697.7679</v>
+        <v>343888.18385</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>922195.1416800001</v>
+        <v>996319.1534900002</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>996417.4881699999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1049427.88129</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>980608.105</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>48118.50754000001</v>
+        <v>52511.97768</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>46916.50222</v>
+        <v>49821.42764</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>42645.93797</v>
+        <v>59451.26298</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>35604.31442</v>
+        <v>58622.19708000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>60116.10689</v>
+        <v>85675.43005</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>67992.0177</v>
+        <v>90117.62645</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>89458.82403999999</v>
+        <v>141576.88301</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>98529.93320999999</v>
+        <v>122514.58689</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>99111.53959999999</v>
+        <v>152069.13836</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>635053.5578000001</v>
+        <v>925062.2574899999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>534339.80163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>553967.74717</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>903392.197</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>276.00629</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>356.5351700000001</v>
+        <v>314.04883</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>188.76413</v>
+        <v>153.32413</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>436.03614</v>
+        <v>998.06814</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>395.7890400000001</v>
+        <v>1042.10333</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>125.76418</v>
+        <v>1253.78818</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>526.1975500000001</v>
+        <v>3020.99739</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1124.71244</v>
+        <v>2050.05212</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>210.27029</v>
+        <v>3550.07863</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2737.07376</v>
+        <v>2713.70876</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>2153.16774</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>2327.84084</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>3555.453</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>43.79398</v>
@@ -1817,7 +1833,7 @@
         <v>24.80768</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>0.7402799999999999</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>7.061970000000001</v>
@@ -1826,7 +1842,7 @@
         <v>4.05223</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>6.96891</v>
+        <v>365.20297</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>18.87909</v>
@@ -1838,226 +1854,256 @@
         <v>389.93495</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>188.54551</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>30357.35073</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>55.892</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>6025.52645</v>
+        <v>5550.83267</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>4172.55363</v>
+        <v>5448.60301</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>4612.277359999999</v>
+        <v>10268.92131</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5563.49955</v>
+        <v>5826.82542</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>5828.904979999999</v>
+        <v>7374.35218</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>6501.434909999999</v>
+        <v>13508.49499</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>8197.35557</v>
+        <v>12528.0738</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>9164.593500000001</v>
+        <v>11921.83085</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>13156.48433</v>
+        <v>23044.77505</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>45304.60830000001</v>
+        <v>56218.01617</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>49918.39165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>83758.89777000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>55177.093</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>264.18187</v>
+        <v>268.09484</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>358.48933</v>
+        <v>353.78369</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>342.71717</v>
+        <v>529.8686499999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>166.24131</v>
+        <v>85.06385</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>626.26689</v>
+        <v>740.4257299999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>689.08697</v>
+        <v>789.6574300000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>429.7771900000001</v>
+        <v>437.09587</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>786.8753500000001</v>
+        <v>626.43132</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>572.20216</v>
+        <v>267.63791</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3283.74167</v>
+        <v>3292.25792</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>135.39394</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>135.5869</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1735.429</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1135.95564</v>
+        <v>5434.211800000001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>636.39477</v>
+        <v>2795.49024</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1293.53961</v>
+        <v>3392.78147</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1898.30823</v>
+        <v>1121.11261</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2612.36638</v>
+        <v>2322.67067</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>688.8695799999999</v>
+        <v>448.8042700000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2130.4533</v>
+        <v>2010.08997</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>984.7904599999999</v>
+        <v>730.5357299999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1159.45221</v>
+        <v>1056.99859</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>4167.24191</v>
+        <v>4305.01796</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>4315.20733</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>14857.25932</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>32025.101</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>923.9260399999999</v>
+        <v>513.3662899999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>344.29559</v>
+        <v>216.35924</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1241.59589</v>
+        <v>281.9673</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>279.56283</v>
+        <v>867.5267200000002</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>306.79462</v>
+        <v>989.40265</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>341.53874</v>
+        <v>4209.95046</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>427.49019</v>
+        <v>1656.33952</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>440.5426</v>
+        <v>474.55793</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>746.00424</v>
+        <v>22330.09309</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3942.80785</v>
+        <v>8933.086569999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>5748.68534</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>17974.03748</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>8767.111999999999</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>19849.26499</v>
+        <v>23167.28583</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>12378.6258</v>
+        <v>20065.25577</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>14152.07368</v>
+        <v>19282.05481</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>10458.06228</v>
+        <v>23569.25858</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>23489.84654</v>
+        <v>41843.62573000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>28618.67284</v>
+        <v>41518.65266</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>45320.75531999999</v>
+        <v>88300.42973999999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>50085.11207000001</v>
+        <v>63737.36248</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>36315.05563</v>
+        <v>55061.5351</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>492655.4375300001</v>
+        <v>748889.34568</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>384987.82825</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>312000.68988</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>662549.245</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>55.33638</v>
+        <v>58.36859</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>30.84531</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>137.69224</v>
+        <v>378.89381</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>9.5968</v>
+        <v>258.38971</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>248.33927</v>
+        <v>256.46246</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>94.75239999999999</v>
+        <v>92.79063000000001</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>26.1059</v>
@@ -2066,952 +2112,1075 @@
         <v>6.6116</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>0</v>
+        <v>19.06608</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>1081.12363</v>
+        <v>1080.58555</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>404.00472</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>2401.51985</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>593.5410000000001</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>327.79802</v>
+        <v>294.9445699999999</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>337.08877</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>277.62418</v>
+        <v>210.77857</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>275.75678</v>
+        <v>572.7970900000001</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>160.48098</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>49.9839</v>
+        <v>52.52628</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>197.46394</v>
+        <v>116.21875</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>49.44492</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>214.05809</v>
+        <v>90.34975999999999</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>256.50131</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>168.08802</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>193.37499</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>659.626</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>19216.71788</v>
+        <v>16905.07282</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>28237.3199</v>
+        <v>20195.59883</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>20374.84603</v>
+        <v>24927.86525</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>16517.2505</v>
+        <v>25322.41468</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>26440.25622</v>
+        <v>30938.84435</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>30877.86195</v>
+        <v>28238.90932</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>32196.25617</v>
+        <v>33116.3291</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>35868.37118</v>
+        <v>42898.88084999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>46737.90365</v>
+        <v>46648.49514999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>81235.08689000001</v>
+        <v>98983.80262</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>86320.48913</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>89961.18940999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>138273.705</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>41950.66056</v>
+        <v>52242.68978</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>33431.5942</v>
+        <v>35503.59469</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>26597.35429</v>
+        <v>45019.52408</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>50252.0975</v>
+        <v>43406.46585</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>47669.30185000001</v>
+        <v>88017.50692999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>47256.51734000001</v>
+        <v>66146.11930000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>80644.84169</v>
+        <v>109934.87025</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>89681.91083000001</v>
+        <v>111098.2813</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>63942.49278</v>
+        <v>94591.19649000002</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>565226.92448</v>
+        <v>983106.63887</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>497076.1767</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>468215.16133</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>777888.835</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1191.76234</v>
+        <v>1984.15126</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>3362.33163</v>
+        <v>981.1096900000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1460.97432</v>
+        <v>1648.99933</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1150.61693</v>
+        <v>1318.30501</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1615.66591</v>
+        <v>2555.37608</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1780.10558</v>
+        <v>1853.73353</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1806.58194</v>
+        <v>1901.67779</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1938.36897</v>
+        <v>1981.60391</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1725.96323</v>
+        <v>1700.55102</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>5875.18094</v>
+        <v>6418.537800000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>7047.55733</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7221.119529999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>4820.019</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>14559.05462</v>
+        <v>16658.79514</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>3896.02652</v>
+        <v>4772.889689999999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>3976.40647</v>
+        <v>5626.363119999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>9404.144969999999</v>
+        <v>8773.834799999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>10066.89406</v>
+        <v>16133.23541</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>8836.605069999998</v>
+        <v>10582.2823</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>9873.338100000001</v>
+        <v>10940.88873</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>17728.66348</v>
+        <v>19720.44652</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>6399.60415</v>
+        <v>17673.51567</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>35129.55971</v>
+        <v>37537.56591</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>30251.99965</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>42447.62824000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>38274.934</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>474.95766</v>
+        <v>269.20986</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>504.93096</v>
+        <v>466.72685</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>276.73915</v>
+        <v>44.51685</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>87.17708999999998</v>
+        <v>92.52928</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>79.01807999999998</v>
+        <v>179.42339</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>17.49832</v>
+        <v>147.28397</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>129.58189</v>
+        <v>89.47160000000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>623.4677399999999</v>
+        <v>628.98376</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>154.13903</v>
+        <v>127.9936</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>613.6407399999999</v>
+        <v>3609.5717</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>16449.88993</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>16891.85627</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>813.958</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>18943.43548</v>
+        <v>26575.56289</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>10848.84959</v>
+        <v>19834.14804</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>13857.37159</v>
+        <v>26801.4524</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>9373.763540000002</v>
+        <v>17800.14008</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>25640.9455</v>
+        <v>55224.30746</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>24305.08685</v>
+        <v>36895.99802000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>46753.44863000001</v>
+        <v>80060.93792</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>49051.90306</v>
+        <v>68006.36936</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>36474.1972</v>
+        <v>56176.3898</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>500325.67447</v>
+        <v>894379.3791299999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>403428.28481</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>356282.30007</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>698018.875</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>425.55932</v>
+        <v>407.33809</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>198.07749</v>
+        <v>554.27509</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>15.82418</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>8.432499999999999</v>
+        <v>172.76821</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>229.3625</v>
+        <v>231.24152</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>72.19923000000001</v>
+        <v>371.3353</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1416.4299</v>
+        <v>79.48502999999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>133.71486</v>
+        <v>165.82226</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>73.71195</v>
+        <v>559.4235800000001</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>5307.80132</v>
+        <v>5275.10293</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>1201.89772</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>647.23469</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>1002.554</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>16.13389</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>56.46918</v>
+        <v>180.19316</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>167.71001</v>
+        <v>89.59228</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>27.68039</v>
+        <v>18.11029</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>33.98646</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>40.08991</v>
+        <v>7.109970000000001</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0.00098</v>
+        <v>0.00092</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>1.64767</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>1.2628</v>
+        <v>1.26279</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>29.30559</v>
+        <v>203.45392</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>317.74699</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>418.09803</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>152.297</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>6339.75725</v>
+        <v>6331.49865</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>14564.90883</v>
+        <v>8714.252169999998</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>6842.328570000001</v>
+        <v>10792.77592</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>30200.28208</v>
+        <v>15230.77818</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>10003.42934</v>
+        <v>13659.93661</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>12204.93238</v>
+        <v>16288.37621</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>20665.46025</v>
+        <v>16862.40826</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>20204.14505</v>
+        <v>20593.40782</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>19113.61442</v>
+        <v>18352.06003</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>17945.76171</v>
+        <v>35683.02748</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>38378.80027</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>44306.9245</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>34806.198</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>83302.50274999999</v>
+        <v>93651.92761</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>63821.30642999999</v>
+        <v>74084.57170999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>71647.87762</v>
+        <v>91993.50674</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>87706.86614</v>
+        <v>113598.88838</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>138118.73097</v>
+        <v>181772.0342</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>155446.3309</v>
+        <v>195632.93829</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>171935.31963</v>
+        <v>228198.88651</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>183509.89847</v>
+        <v>234696.58394</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>178735.80034</v>
+        <v>233137.28355</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>648692.6430500001</v>
+        <v>749270.33531</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>624641.3154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>724255.05784</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>610661.643</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>77404.90231</v>
+        <v>86785.19881000002</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>59859.07768000001</v>
+        <v>69046.03240000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>67930.14662</v>
+        <v>84689.76685000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>83729.66673</v>
+        <v>105860.19328</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>129457.41831</v>
+        <v>167064.93344</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>143584.71049</v>
+        <v>180879.83667</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>162391.29926</v>
+        <v>206384.53148</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>174416.60829</v>
+        <v>218382.51621</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>166305.46725</v>
+        <v>214132.00524</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>620988.8863899999</v>
+        <v>717053.8725299999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>587813.7151899999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>681946.08472</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>561267.97</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>5897.60044</v>
+        <v>6866.728800000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>3962.22875</v>
+        <v>5038.53931</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3717.731</v>
+        <v>7303.73989</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>3977.19941</v>
+        <v>7738.6951</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>8661.31266</v>
+        <v>14707.10076</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>11861.62041</v>
+        <v>14753.10162</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>9544.020369999998</v>
+        <v>21814.35503</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>9093.29018</v>
+        <v>16314.06773</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>12430.33309</v>
+        <v>19005.27831</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>27703.75666</v>
+        <v>32216.46278</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>36827.60021</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>42308.97312</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>49393.673</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>94091.42703000001</v>
+        <v>87982.44104999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>101583.80608</v>
+        <v>98950.25347</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>101688.01357</v>
+        <v>62639.94541</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>52846.25122999999</v>
+        <v>55738.35127</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>123108.89191</v>
+        <v>72910.85133</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>139681.60391</v>
+        <v>122530.07599</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>117286.7513</v>
+        <v>96624.96524</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>85042.17326000001</v>
+        <v>84180.72869999999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>157131.01438</v>
+        <v>168228.84217</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>343329.1319500001</v>
+        <v>189004.4368</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>409039.7977</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>410925.40929</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>495449.824</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>33162.51131</v>
+        <v>41295.30323</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>35321.69722</v>
+        <v>35186.36440999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>39741.23838</v>
+        <v>48125.40820000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>40731.1189</v>
+        <v>54087.15051</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>60565.2337</v>
+        <v>105250.70385</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>57303.07173</v>
+        <v>267712.25853</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>73491.27407000001</v>
+        <v>92836.41378</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>97553.22415000001</v>
+        <v>121328.71422</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>89023.33772</v>
+        <v>235582.72159</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>162548.77185</v>
+        <v>186954.69435</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>208445.66355</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>257779.01112</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>310970.049</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1900.29291</v>
+        <v>1827.41496</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>416.4578599999999</v>
+        <v>444.88407</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>216.93227</v>
+        <v>203.40263</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1291.75779</v>
+        <v>1360.28016</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1192.97523</v>
+        <v>5586.53463</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>698.0301500000002</v>
+        <v>1036.82159</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>793.20159</v>
+        <v>701.23196</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>566.54999</v>
+        <v>600.86295</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>2308.3318</v>
+        <v>978.4257100000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1061.65679</v>
+        <v>1577.06873</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3383.91471</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5047.48281</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2692.619</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>31262.2184</v>
+        <v>39467.88827</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>34905.23936</v>
+        <v>34741.48033999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>39524.30611</v>
+        <v>47922.00557</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>39439.36111000001</v>
+        <v>52726.87035</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>59372.25847</v>
+        <v>99664.16922</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>56605.04158</v>
+        <v>266675.43694</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>72698.07248</v>
+        <v>92135.18182000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>96986.67416</v>
+        <v>120727.85127</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>86715.00592</v>
+        <v>234604.29588</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>161487.11506</v>
+        <v>185377.62562</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>205061.74884</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>252731.52831</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>308277.43</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>31104.30945</v>
+        <v>36213.61431</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>34855.42305</v>
+        <v>27005.0872</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>144579.27116</v>
+        <v>150927.83069</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>35454.37134000001</v>
+        <v>41912.71423000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>67404.14178000001</v>
+        <v>73791.81311</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>89538.23549999998</v>
+        <v>100812.27851</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>81152.08250999999</v>
+        <v>93803.88065000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>214208.2355</v>
+        <v>217090.84624</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>77430.15635999999</v>
+        <v>109192.96913</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>276357.36036</v>
+        <v>366268.58552</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>139724.46598</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>183004.31875</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>177474.336</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2909.34144</v>
+        <v>5038.64327</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2172.06899</v>
+        <v>3439.30379</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>2494.622409999999</v>
+        <v>6854.111619999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>3144.90092</v>
+        <v>6662.583680000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>5248.35608</v>
+        <v>6609.52699</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>6544.24266</v>
+        <v>14793.22821</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>9760.270299999998</v>
+        <v>21715.96211</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>8149.86879</v>
+        <v>12170.89997</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>8267.43698</v>
+        <v>16030.37561</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>20722.37787</v>
+        <v>45130.51526</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>23484.00596</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>31069.13512</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>21575.927</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1655.15183</v>
+        <v>1230.38296</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1320.95728</v>
+        <v>1322.19931</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3250.48327</v>
+        <v>2418.09711</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2237.94807</v>
+        <v>2014.10613</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2514.187840000001</v>
+        <v>3224.15097</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>5784.977670000001</v>
+        <v>11022.8775</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4945.91364</v>
+        <v>5316.111029999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>7979.72617</v>
+        <v>6898.490450000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2502.15164</v>
+        <v>8768.05011</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>6457.37589</v>
+        <v>4515.14458</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>7073.41008</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>7975.265369999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>16609.403</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>26539.81618</v>
+        <v>29944.58808</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>31362.39678</v>
+        <v>22243.5841</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>138834.16548</v>
+        <v>141655.62196</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>30071.52235</v>
+        <v>33236.02442</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>59641.59785999999</v>
+        <v>63958.13515000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>77209.01516999998</v>
+        <v>74996.17280000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>66445.89857</v>
+        <v>66771.80751</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>198078.64054</v>
+        <v>198021.45582</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>66660.56774</v>
+        <v>84394.54341</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>249177.6066</v>
+        <v>316622.9256799999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>109167.04994</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>143959.91826</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>139289.006</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>96149.62889000001</v>
+        <v>93064.12996999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>102050.08025</v>
+        <v>107131.53068</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-3150.019209999997</v>
+        <v>-40162.47708</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>58122.99878999999</v>
+        <v>67912.78754999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>116269.98383</v>
+        <v>104369.74207</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>107446.44014</v>
+        <v>289430.0560099999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>109625.94286</v>
+        <v>95657.49837</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-31612.83809</v>
+        <v>-11581.40332</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>168724.19574</v>
+        <v>294618.59463</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>229520.54344</v>
+        <v>9690.54563000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>477760.99527</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>485700.10166</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>628945.537</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>30818.8154</v>
+        <v>30882.53397</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>26924.18675</v>
+        <v>27338.79239</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>30158.30261</v>
+        <v>32037.29736</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>30427.7386</v>
+        <v>32145.07959</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>43981.72908</v>
+        <v>45390.56724</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>46163.99556</v>
+        <v>50809.02716999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>50519.86344000001</v>
+        <v>49905.69321999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>48863.44303</v>
+        <v>51269.61447000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>52787.8026</v>
+        <v>56246.98434</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>124636.71193</v>
+        <v>127362.91976</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>143731.67502</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>157927.89507</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>167250.635</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>65330.81348999999</v>
+        <v>62181.59599999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>75125.89350000001</v>
+        <v>79792.73829000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-33308.32182</v>
+        <v>-72199.77443999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>27695.26019</v>
+        <v>35767.70795999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>72288.25474999999</v>
+        <v>58979.17483</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>61282.44458</v>
+        <v>238621.02884</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>59106.07942</v>
+        <v>45751.80515000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-80476.28112</v>
+        <v>-62851.01779000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>115936.39314</v>
+        <v>238371.61029</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>104883.83151</v>
+        <v>-117672.37413</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>334029.3202499999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>327772.20659</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>461694.902</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3112</v>
+        <v>2841</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3226</v>
+        <v>2943</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3332</v>
+        <v>3053</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3504</v>
+        <v>3171</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4061</v>
+        <v>3491</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4155</v>
+        <v>3545</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>4361</v>
+        <v>3688</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4560</v>
+        <v>3766</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>4769</v>
+        <v>3829</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4126</v>
+        <v>3753</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3726</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>